--- a/Employee Data/Deduction.xlsx
+++ b/Employee Data/Deduction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE86D25D-89C3-4D01-97C5-590A15621282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E06CDA-9955-45D2-B07C-3EFA81D52159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{045F3C60-9FDF-0443-A380-08E3E543606F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -52,6 +52,30 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>Babar</t>
+  </si>
+  <si>
+    <t>1 Day Deduction/Performance Based</t>
+  </si>
+  <si>
+    <t>Cm Ahmad Hanafy</t>
+  </si>
+  <si>
+    <t>Sunil ray</t>
+  </si>
+  <si>
+    <t>1 Day Deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibrahim Forman </t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
   </si>
 </sst>
 </file>
@@ -517,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7A487E-A7C8-1E4C-8CF4-5256CE7817FE}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -555,21 +579,41 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2546</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1916</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">

--- a/Employee Data/Deduction.xlsx
+++ b/Employee Data/Deduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E06CDA-9955-45D2-B07C-3EFA81D52159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE58B0-986C-4CB0-82FC-D1763EC33361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{045F3C60-9FDF-0443-A380-08E3E543606F}"/>
+    <workbookView xWindow="384" yWindow="180" windowWidth="17544" windowHeight="12060" xr2:uid="{045F3C60-9FDF-0443-A380-08E3E543606F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -72,20 +72,68 @@
     <t>1 Day Deduction</t>
   </si>
   <si>
-    <t xml:space="preserve">Ibrahim Forman </t>
-  </si>
-  <si>
     <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>Abdelha Mabrouk</t>
+  </si>
+  <si>
+    <t>Eng. Abdel el kader damaj</t>
+  </si>
+  <si>
+    <t>2 Day Deduction</t>
+  </si>
+  <si>
+    <t>Ibrahim Forman/Mehmoud</t>
+  </si>
+  <si>
+    <t>30/4/2025</t>
+  </si>
+  <si>
+    <t>Zakir atta</t>
+  </si>
+  <si>
+    <t>1 day deduction</t>
+  </si>
+  <si>
+    <t>eng.Ibrahim</t>
+  </si>
+  <si>
+    <t>30/4/2026</t>
+  </si>
+  <si>
+    <t>30/4/2027</t>
+  </si>
+  <si>
+    <t>Half day</t>
+  </si>
+  <si>
+    <t>Mhammad Asjad</t>
+  </si>
+  <si>
+    <t>Eng Ali khalaf/Humaidi</t>
+  </si>
+  <si>
+    <t>jamluddin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -542,7 +590,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -600,7 +648,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -609,51 +657,91 @@
         <v>1916</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2316</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3774</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2097</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="3">
+        <v>2358</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
@@ -859,6 +947,7 @@
       <c r="F37" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Employee Data/Deduction.xlsx
+++ b/Employee Data/Deduction.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AE58B0-986C-4CB0-82FC-D1763EC33361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87CD3C1-A01F-4056-AF32-5AA4981F79E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="180" windowWidth="17544" windowHeight="12060" xr2:uid="{045F3C60-9FDF-0443-A380-08E3E543606F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{045F3C60-9FDF-0443-A380-08E3E543606F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Sunil ray</t>
   </si>
   <si>
-    <t>1 Day Deduction</t>
-  </si>
-  <si>
     <t>23/04/2025</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Eng. Abdel el kader damaj</t>
   </si>
   <si>
-    <t>2 Day Deduction</t>
-  </si>
-  <si>
     <t>Ibrahim Forman/Mehmoud</t>
   </si>
   <si>
@@ -118,6 +112,18 @@
   </si>
   <si>
     <t>jamluddin</t>
+  </si>
+  <si>
+    <t>Ali Sanjjar</t>
+  </si>
+  <si>
+    <t>2 Days Deduction</t>
+  </si>
+  <si>
+    <t>1 Days Deduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eng. Ibrahim </t>
   </si>
 </sst>
 </file>
@@ -247,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -271,6 +277,9 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -590,7 +599,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -648,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>10</v>
@@ -657,10 +666,10 @@
         <v>1916</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -668,19 +677,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="D4" s="3">
         <v>2316</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -688,19 +697,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>3774</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -708,19 +717,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="3">
         <v>2097</v>
       </c>
       <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -728,27 +737,40 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="D7" s="3">
         <v>2358</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="3" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>45813</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3">
+        <v>3001</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>

--- a/Employee Data/Deduction.xlsx
+++ b/Employee Data/Deduction.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\servadmin\Desktop\Saudi Ic\Employee Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87CD3C1-A01F-4056-AF32-5AA4981F79E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E15D5D7-7DFD-4E06-9C39-4EC7CA51C79B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{045F3C60-9FDF-0443-A380-08E3E543606F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -52,78 +52,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>22/04/2025</t>
-  </si>
-  <si>
-    <t>Babar</t>
-  </si>
-  <si>
-    <t>1 Day Deduction/Performance Based</t>
-  </si>
-  <si>
-    <t>Cm Ahmad Hanafy</t>
-  </si>
-  <si>
-    <t>Sunil ray</t>
-  </si>
-  <si>
-    <t>23/04/2025</t>
-  </si>
-  <si>
-    <t>28/04/2025</t>
-  </si>
-  <si>
-    <t>Abdelha Mabrouk</t>
-  </si>
-  <si>
-    <t>Eng. Abdel el kader damaj</t>
-  </si>
-  <si>
-    <t>Ibrahim Forman/Mehmoud</t>
-  </si>
-  <si>
-    <t>30/4/2025</t>
-  </si>
-  <si>
-    <t>Zakir atta</t>
-  </si>
-  <si>
-    <t>1 day deduction</t>
-  </si>
-  <si>
-    <t>eng.Ibrahim</t>
-  </si>
-  <si>
-    <t>30/4/2026</t>
-  </si>
-  <si>
-    <t>30/4/2027</t>
-  </si>
-  <si>
-    <t>Half day</t>
-  </si>
-  <si>
-    <t>Mhammad Asjad</t>
-  </si>
-  <si>
-    <t>Eng Ali khalaf/Humaidi</t>
-  </si>
-  <si>
-    <t>jamluddin</t>
-  </si>
-  <si>
-    <t>Ali Sanjjar</t>
-  </si>
-  <si>
-    <t>2 Days Deduction</t>
-  </si>
-  <si>
-    <t>1 Days Deduction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eng. Ibrahim </t>
   </si>
 </sst>
 </file>
@@ -599,7 +527,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -633,144 +561,53 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2546</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1916</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3">
-        <v>2316</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3774</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2097</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2358</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9">
-        <v>45813</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3001</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3"/>
